--- a/config/Testcases/SmokeTestData.xlsx
+++ b/config/Testcases/SmokeTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{31925D2C-023D-43CC-96AB-5059CCFAEC44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{7ADA5014-0F2C-4B6C-A236-C80FEC0C2AEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="4512" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12384" windowHeight="1572" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A13:N25"/>
+  <oleSize ref="A7:G9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>Username</t>
   </si>
@@ -81,27 +81,12 @@
     <t>A9</t>
   </si>
   <si>
-    <t>TestB</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>TestC</t>
-  </si>
-  <si>
     <t>Col4</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>MJ</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -112,6 +97,33 @@
   </si>
   <si>
     <t>Access_Project_Projectlist_Sales</t>
+  </si>
+  <si>
+    <t>Access_Resource_Resourcelist_Sales</t>
+  </si>
+  <si>
+    <t>Access_ResourceBooking_Resource_Sales</t>
+  </si>
+  <si>
+    <t>Access_ResourceRequirement_Resource_Sales</t>
+  </si>
+  <si>
+    <t>Access_ResourceRoles_Resourcelist_Sales</t>
+  </si>
+  <si>
+    <t>Access_ResourceSkill_Resourcelist_Sales</t>
+  </si>
+  <si>
+    <t>ContactContactlistUnderSales</t>
+  </si>
+  <si>
+    <t>Validate_OppotunitiesCanbeOpened_UnderSales_Opportunities</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
+  </si>
+  <si>
+    <t>AccountInformationUnderSales</t>
   </si>
 </sst>
 </file>
@@ -197,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -210,6 +222,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,10 +603,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -745,72 +761,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="patel@4550.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="Nidhi@4550.com" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964692C-ACEF-4FB4-BE4A-BBF9D9D1FEEF}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -818,7 +879,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -832,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -846,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -860,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,15 +935,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -896,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,116 +970,219 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/config/Testcases/SmokeTestData.xlsx
+++ b/config/Testcases/SmokeTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{7ADA5014-0F2C-4B6C-A236-C80FEC0C2AEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E50B0316-685A-4494-AB5D-EF088B754DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12384" windowHeight="1572" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11484" windowHeight="7584" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A7:G9"/>
+  <oleSize ref="A1:F24"/>
 </workbook>
 </file>
 
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964692C-ACEF-4FB4-BE4A-BBF9D9D1FEEF}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
